--- a/xlsx/country_comparison/conjoint_left_ag_b_binary_alla_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_left_ag_b_binary_alla_positive.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.590432228283676</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.601344860710855</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.613245033112583</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.587147030185005</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.640070921985816</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.58043758043758</v>
       </c>
     </row>
   </sheetData>
